--- a/Data_from_1st_run_v5_rev.cyq.xlsx
+++ b/Data_from_1st_run_v5_rev.cyq.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/OneDrive - University College London/what is ses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/OneDrive - University College London/Flexibility_SES/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="5200" windowWidth="25600" windowHeight="14400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="628">
   <si>
     <t>Participants</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Zonderman, A. B.</t>
-  </si>
-  <si>
-    <t>Shaked</t>
   </si>
   <si>
     <t>Waldstein. S. R</t>
@@ -2393,9 +2390,6 @@
     <t>reported their educational level</t>
   </si>
   <si>
-    <t>&lt;11 = 11; 12; 13; 14; 179 15; 16; 17+ = 17</t>
-  </si>
-  <si>
     <t>no (no parent's data for old participants)</t>
   </si>
   <si>
@@ -2647,10 +2641,6 @@
   </si>
   <si>
     <t>2000 US Census report, by zip code: (1) median household income; (2) % of adults &gt;25 has bachelor or higher; (3) proportion of poverty household; (4) single mother households. Distributions of the latter two census variables were normalized by natural log-transformation prior to further data reduction.</t>
-  </si>
-  <si>
-    <t>Year 2010 Census Report (http://www.census
-.gov/2010census/): 1) percentage of households on public assistance (e.g., from food stamps or a supplemental nutrition assistance program); 2) percentage of households below the federal poverty line; 3) percentage of residents without a high school diploma for the population aged 25 years and over; 4) percentage of the working aged population who are unemployed; and 5) median household income (reverse-coded). All variables were logarithm (base-10) transformed to correct for skewed distributions.  a composite community-level disadvantage score was computed by (z-score) standardizing and then averaging the 5 transformed census variables</t>
   </si>
   <si>
     <t>(Hollingshead 1975) for indv SEP; (Gianaros et al.2013) for income and community SES</t>
@@ -2867,6 +2857,117 @@
   </si>
   <si>
     <t>Calculated? (cfps)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>composite: Hollingshead two-factor: own occupation &amp; highest formal edu (SEP = 7*occu + 4* edu)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shaked</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>composite, childhood SES and adult SES separately (self-reported at age 64 years old); SES were treated as latent variables in Structural equation modeling.   childhood (cSES): a latent factor that contributes to father’s occupation (FO), the number of public rooms in the childhood family home (FR), and the number of people sharing a sanitation facility (SAN);  Adult (aSES): a latent factor that contributes to participant occupation (OCC) and residential deprivation (DI)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO (no local area deprivation; no recalled childhood SES)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO (no local area deprivation; no recalled childhood SES)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottom 5% of Scottish Index of Multiple Depreivation 2004 (SIMD) score</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES (but only current SES)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES (but only current SES)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Least and Most deprived region (top 20% and buttom 5% score Scottish Index of Multiple Deprivation 2004 (SIMD)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>composite score for neihborhood. The SIMD 2004 score is then constructed by combining the exponentially transformed domain rank of the domain scores using the ratios 6 : 6 : 3 : 3 : 2 : 1 in the following order:
+    Current Income; Employment; Health; Education, Skills, and Training; Geographic Access and Telecommunications; Housing  
+    (The larger the SIMD 2004 score the more deprived the data zone. )</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Year 2010 Census Report (http://www.census
+.gov/2010census/): 1) percentage of households on public assistance (e.g., from food stamps or a supplemental nutrition assistance program); 2) percentage of households below the federal poverty line; 3) percentage of residents without a high school diploma for the population aged 25 years and over; 4) percentage of the working aged population who are unemployed; and 5) median household income (reverse-coded). All variables were logarithm (base-10) transformed to correct for skewed distributions.  a composite community-level disadvantage score was computed by (z-score) standardizing and then averaging the 5 transformed census variables</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>an income level below the risk-of-poverty threshold, which is set at 60% of the national median equivalized disposable income adjusted for household size according to the Federal Statistical Office of Germany (Destatis, 2012),</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES (but only calculated early life poverty now)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO (no parent's data for old people)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;11 = 11; 12; 13; 14; 15; 16; 17+ = 17</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>YESS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Johnson</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO (occupation)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO (occupation)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3015,7 +3116,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3129,8 +3230,80 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3189,9 +3362,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3217,8 +3387,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="185">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -3276,6 +3453,42 @@
     <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3332,6 +3545,42 @@
     <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3645,11 +3894,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H54" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="164" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3698,44 +3948,44 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V1" s="3"/>
       <c r="W1" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
       <c r="BA1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BB1" s="2"/>
       <c r="BC1" s="2"/>
@@ -3759,160 +4009,160 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J2" t="s">
         <v>354</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>355</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>356</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>357</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>358</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" t="s">
         <v>360</v>
       </c>
-      <c r="P2" t="s">
-        <v>361</v>
-      </c>
       <c r="Q2" t="s">
+        <v>460</v>
+      </c>
+      <c r="R2" t="s">
         <v>461</v>
       </c>
-      <c r="R2" t="s">
-        <v>462</v>
-      </c>
       <c r="S2" t="s">
+        <v>463</v>
+      </c>
+      <c r="T2" t="s">
         <v>464</v>
       </c>
-      <c r="T2" t="s">
-        <v>465</v>
-      </c>
       <c r="U2" t="s">
+        <v>466</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>468</v>
-      </c>
       <c r="W2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="X2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y2" t="s">
+        <v>473</v>
+      </c>
+      <c r="Z2" t="s">
         <v>474</v>
       </c>
-      <c r="Z2" t="s">
-        <v>475</v>
-      </c>
       <c r="AA2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB2" t="s">
         <v>100</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>438</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>439</v>
+      </c>
+      <c r="BD2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AD2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="BE2" t="s">
         <v>105</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>435</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>436</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>125</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>439</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>440</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:57" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.2">
@@ -3932,10 +4182,10 @@
         <v>2016</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>8</v>
@@ -3947,80 +4197,80 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="O3" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P3" s="5">
         <v>13</v>
       </c>
       <c r="Q3" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="R3" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>517</v>
-      </c>
       <c r="U3" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="W3" s="5">
         <v>1</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Y3" s="5">
         <v>1</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AA3" s="5">
         <v>1</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG3" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AH3" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AI3" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="AK3" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="AL3" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="AL3" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="AM3" s="5"/>
       <c r="AN3" s="5"/>
@@ -4040,16 +4290,16 @@
         <v>1</v>
       </c>
       <c r="BB3" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="BC3" s="6">
         <v>1</v>
       </c>
       <c r="BD3" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BE3" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:57" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
@@ -4069,10 +4319,10 @@
         <v>2018</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>8</v>
@@ -4094,13 +4344,13 @@
         <v>0.17534246575342466</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N4" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>365</v>
       </c>
       <c r="P4" s="5">
         <v>4</v>
@@ -4110,10 +4360,10 @@
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="W4" s="5">
         <v>0</v>
@@ -4124,35 +4374,35 @@
         <v>2</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AE4" s="5"/>
       <c r="AF4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI4" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AG4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH4" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI4" s="5" t="s">
+      <c r="AJ4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK4" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="AJ4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK4" s="6" t="s">
+      <c r="AL4" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="AM4" s="5"/>
       <c r="AN4" s="5"/>
@@ -4172,10 +4422,10 @@
         <v>0</v>
       </c>
       <c r="BD4" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BE4" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:57" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.2">
@@ -4195,10 +4445,10 @@
         <v>2012</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>13</v>
@@ -4210,13 +4460,13 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>367</v>
-      </c>
       <c r="O5" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P5" s="5">
         <v>14</v>
@@ -4226,10 +4476,10 @@
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="W5" s="5">
         <v>0</v>
@@ -4241,13 +4491,13 @@
         <v>3</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
@@ -4256,16 +4506,16 @@
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AL5" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM5" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AM5" s="5" t="s">
+      <c r="AN5" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="AN5" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="AO5" s="5"/>
       <c r="AP5" s="5"/>
@@ -4279,7 +4529,7 @@
       <c r="AX5" s="5"/>
       <c r="AY5" s="5"/>
       <c r="AZ5" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BA5" s="5">
         <v>0</v>
@@ -4287,10 +4537,10 @@
       <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
       <c r="BD5" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BE5" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:57" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
@@ -4310,10 +4560,10 @@
         <v>2018</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>13</v>
@@ -4331,13 +4581,13 @@
         <v>12</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P6" s="11">
         <v>15</v>
@@ -4347,10 +4597,10 @@
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="W6" s="11">
         <v>0</v>
@@ -4362,40 +4612,40 @@
         <v>4</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AD6" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE6" s="11"/>
       <c r="AF6" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH6" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AG6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH6" s="6" t="s">
+      <c r="AI6" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AI6" s="8" t="s">
+      <c r="AJ6" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="AJ6" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="AK6" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AL6" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
       <c r="AO6" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AP6" s="11"/>
       <c r="AQ6" s="11"/>
@@ -4414,10 +4664,10 @@
       <c r="BB6" s="11"/>
       <c r="BC6" s="11"/>
       <c r="BD6" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BE6" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:57" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
@@ -4437,10 +4687,10 @@
         <v>2018</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>16</v>
@@ -4458,13 +4708,13 @@
         <v>25</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P7" s="11">
         <v>15</v>
@@ -4474,10 +4724,10 @@
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="W7" s="11">
         <v>0</v>
@@ -4489,40 +4739,40 @@
         <v>4</v>
       </c>
       <c r="AB7" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AD7" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE7" s="11"/>
       <c r="AF7" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH7" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AG7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH7" s="6" t="s">
+      <c r="AI7" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AI7" s="8" t="s">
+      <c r="AJ7" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="AJ7" s="8" t="s">
+      <c r="AK7" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AK7" s="8" t="s">
+      <c r="AL7" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="AL7" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="AM7" s="11"/>
       <c r="AN7" s="11"/>
       <c r="AO7" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="11"/>
@@ -4541,10 +4791,10 @@
       <c r="BB7" s="11"/>
       <c r="BC7" s="11"/>
       <c r="BD7" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BE7" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:57" s="10" customFormat="1" ht="117" x14ac:dyDescent="0.2">
@@ -4555,7 +4805,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>17</v>
@@ -4564,10 +4814,10 @@
         <v>2019</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>18</v>
@@ -4585,13 +4835,13 @@
         <v>25.4</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N8" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>370</v>
       </c>
       <c r="P8" s="5">
         <v>30</v>
@@ -4601,10 +4851,10 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="W8" s="5">
         <v>0</v>
@@ -4616,13 +4866,13 @@
         <v>5</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
@@ -4631,16 +4881,16 @@
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL8" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="AM8" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AL8" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="AM8" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="AN8" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AO8" s="5"/>
       <c r="AP8" s="5"/>
@@ -4660,10 +4910,10 @@
       <c r="BB8" s="5"/>
       <c r="BC8" s="5"/>
       <c r="BD8" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BE8" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:57" s="10" customFormat="1" ht="134" x14ac:dyDescent="0.2">
@@ -4674,7 +4924,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>20</v>
@@ -4683,13 +4933,13 @@
         <v>21</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>578</v>
-      </c>
       <c r="H9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="5">
         <v>7.75</v>
@@ -4704,13 +4954,13 @@
         <v>9</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P9" s="5">
         <v>16</v>
@@ -4720,10 +4970,10 @@
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="W9" s="5">
         <v>0</v>
@@ -4735,13 +4985,13 @@
         <v>6</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AD9" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
@@ -4750,16 +5000,16 @@
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AL9" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN9" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="AM9" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN9" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="AO9" s="5"/>
       <c r="AP9" s="5"/>
@@ -4779,10 +5029,10 @@
       <c r="BB9" s="5"/>
       <c r="BC9" s="5"/>
       <c r="BD9" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BE9" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:57" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.2">
@@ -4802,13 +5052,13 @@
         <v>22</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" s="5">
         <v>5.78</v>
@@ -4825,13 +5075,13 @@
         <v>6.833333333333333</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P10" s="5">
         <v>17</v>
@@ -4841,10 +5091,10 @@
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="W10" s="5">
         <v>0</v>
@@ -4856,35 +5106,35 @@
         <v>7</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AD10" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE10" s="6"/>
       <c r="AF10" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI10" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="AG10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH10" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI10" s="7" t="s">
+      <c r="AJ10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK10" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="AL10" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="AJ10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK10" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="AL10" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="AM10" s="5"/>
       <c r="AN10" s="5"/>
@@ -4906,562 +5156,577 @@
       <c r="BB10" s="5"/>
       <c r="BC10" s="5"/>
       <c r="BD10" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BE10" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:57" s="28" customFormat="1" ht="195" x14ac:dyDescent="0.2">
-      <c r="A11" s="26">
+    <row r="11" spans="1:57" s="27" customFormat="1" ht="195" x14ac:dyDescent="0.2">
+      <c r="A11" s="25">
         <v>27</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>27</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>2017</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>594</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>594</v>
-      </c>
-      <c r="H11" s="26" t="s">
+      <c r="F11" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="25">
         <v>28.15</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <v>2.76</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="25">
         <v>25</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="25">
         <v>36</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="N11" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="N11" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="P11" s="26">
+      <c r="O11" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="P11" s="25">
         <v>18</v>
       </c>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26" t="s">
-        <v>526</v>
-      </c>
-      <c r="V11" s="27" t="s">
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="V11" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="W11" s="25">
+        <v>0</v>
+      </c>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25">
+        <v>8</v>
+      </c>
+      <c r="AB11" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC11" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD11" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="AG11" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="W11" s="26">
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL11" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM11" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN11" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR11" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS11" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT11" s="26"/>
+      <c r="AU11" s="25"/>
+      <c r="AV11" s="25"/>
+      <c r="AW11" s="25"/>
+      <c r="AX11" s="25"/>
+      <c r="AY11" s="25"/>
+      <c r="AZ11" s="25"/>
+      <c r="BA11" s="25">
         <v>0</v>
       </c>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26">
+      <c r="BB11" s="25"/>
+      <c r="BC11" s="25"/>
+      <c r="BD11" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="BE11" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57" s="33" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+      <c r="A12" s="31">
+        <v>52</v>
+      </c>
+      <c r="B12" s="31">
+        <v>52</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="31">
+        <v>2016</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>572</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="31">
+        <v>19.96</v>
+      </c>
+      <c r="J12" s="31">
+        <v>1.25</v>
+      </c>
+      <c r="K12" s="31">
+        <v>18</v>
+      </c>
+      <c r="L12" s="31">
+        <v>27</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="P12" s="31">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="V12" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="W12" s="31">
+        <v>0</v>
+      </c>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC12" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD12" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG12" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH12" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI12" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ12" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK12" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL12" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="31"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="31"/>
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="31"/>
+      <c r="AZ12" s="31"/>
+      <c r="BA12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="31"/>
+      <c r="BC12" s="31"/>
+      <c r="BD12" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="BE12" s="31" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="31">
+        <v>20</v>
+      </c>
+      <c r="B13" s="31">
+        <v>20</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="31">
+        <v>2013</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>624</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>626</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="31">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="J13" s="31">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="N13" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" s="31">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="V13" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="W13" s="31">
+        <v>0</v>
+      </c>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC13" s="32" t="s">
+        <v>601</v>
+      </c>
+      <c r="AD13" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="AT13" s="31"/>
+      <c r="AU13" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="31"/>
+      <c r="AZ13" s="31"/>
+      <c r="BA13" s="31">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="31"/>
+      <c r="BC13" s="31"/>
+      <c r="BD13" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE13" s="31" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="31">
+        <v>21</v>
+      </c>
+      <c r="B14" s="31">
+        <v>21</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="31">
+        <v>2013</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>627</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="31">
+        <v>66.2</v>
+      </c>
+      <c r="J14" s="31">
+        <v>7.5</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="N14" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="P14" s="31">
+        <v>20</v>
+      </c>
+      <c r="U14" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="V14" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="W14" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="31">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC14" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="AD14" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="32"/>
+      <c r="BA14" s="31">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE14" s="31" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A15" s="31">
         <v>8</v>
       </c>
-      <c r="AB11" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC11" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD11" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="AG11" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="AL11" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="AM11" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN11" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO11" s="26"/>
-      <c r="AP11" s="26"/>
-      <c r="AQ11" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="AR11" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="AS11" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT11" s="27"/>
-      <c r="AU11" s="26"/>
-      <c r="AV11" s="26"/>
-      <c r="AW11" s="26"/>
-      <c r="AX11" s="26"/>
-      <c r="AY11" s="26"/>
-      <c r="AZ11" s="26"/>
-      <c r="BA11" s="26">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="26"/>
-      <c r="BC11" s="26"/>
-      <c r="BD11" s="27" t="s">
-        <v>560</v>
-      </c>
-      <c r="BE11" s="26" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:57" s="21" customFormat="1" ht="105" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
-        <v>52</v>
-      </c>
-      <c r="B12" s="19">
-        <v>52</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="19">
-        <v>2016</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="19">
-        <v>19.96</v>
-      </c>
-      <c r="J12" s="19">
-        <v>1.25</v>
-      </c>
-      <c r="K12" s="19">
-        <v>18</v>
-      </c>
-      <c r="L12" s="19">
-        <v>27</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="P12" s="19">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="V12" s="20" t="s">
+      <c r="B15" s="31">
+        <v>8</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="31">
+        <v>2013</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>610</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="31">
+        <v>50.94</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31">
+        <v>36.9</v>
+      </c>
+      <c r="L15" s="31">
+        <v>65.2</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="N15" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="P15" s="31">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="V15" s="32" t="s">
         <v>429</v>
       </c>
-      <c r="W12" s="19">
-        <v>0</v>
-      </c>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19">
-        <v>9</v>
-      </c>
-      <c r="AB12" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC12" s="20" t="s">
+      <c r="W15" s="31">
+        <v>1</v>
+      </c>
+      <c r="X15" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31">
+        <v>11</v>
+      </c>
+      <c r="AB15" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC15" s="32" t="s">
         <v>429</v>
       </c>
-      <c r="AD12" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG12" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH12" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI12" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="AJ12" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK12" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL12" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="19"/>
-      <c r="AO12" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP12" s="19"/>
-      <c r="AQ12" s="19"/>
-      <c r="AR12" s="19"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="19"/>
-      <c r="AU12" s="19"/>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="19"/>
-      <c r="AX12" s="19"/>
-      <c r="AY12" s="19"/>
-      <c r="AZ12" s="19"/>
-      <c r="BA12" s="19">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="19"/>
-      <c r="BC12" s="19"/>
-      <c r="BD12" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE12" s="19" t="s">
+      <c r="AD15" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
+      <c r="AQ15" s="32" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="13" spans="1:57" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
-        <v>20</v>
-      </c>
-      <c r="B13" s="19">
-        <v>20</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="19">
-        <v>2013</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="19">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="J13" s="19">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="P13" s="19">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="V13" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="W13" s="19">
-        <v>0</v>
-      </c>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19">
-        <v>10</v>
-      </c>
-      <c r="AB13" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC13" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="AD13" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="19"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="19"/>
-      <c r="AO13" s="19"/>
-      <c r="AP13" s="19"/>
-      <c r="AQ13" s="19"/>
-      <c r="AR13" s="19"/>
-      <c r="AS13" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="AT13" s="19"/>
-      <c r="AU13" s="19" t="s">
+      <c r="AR15" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="31"/>
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="AW15" s="31"/>
+      <c r="AX15" s="31"/>
+      <c r="AY15" s="31"/>
+      <c r="AZ15" s="31"/>
+      <c r="BA15" s="31">
+        <v>1</v>
+      </c>
+      <c r="BB15" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="BC15" s="32">
+        <v>2</v>
+      </c>
+      <c r="BD15" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="AV13" s="19"/>
-      <c r="AW13" s="19"/>
-      <c r="AX13" s="19"/>
-      <c r="AY13" s="19"/>
-      <c r="AZ13" s="19"/>
-      <c r="BA13" s="19">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="19"/>
-      <c r="BC13" s="19"/>
-      <c r="BD13" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="BE13" s="19" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="14" spans="1:57" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
-        <v>21</v>
-      </c>
-      <c r="B14" s="19">
-        <v>21</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="21">
-        <v>2013</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="21">
-        <v>66.2</v>
-      </c>
-      <c r="J14" s="21">
-        <v>7.5</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="N14" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="P14" s="21">
-        <v>20</v>
-      </c>
-      <c r="U14" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="V14" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="W14" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="19">
-        <v>10</v>
-      </c>
-      <c r="AB14" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC14" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="AD14" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="22"/>
-      <c r="BA14" s="19">
-        <v>0</v>
-      </c>
-      <c r="BD14" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="BE14" s="19" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:57" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
-        <v>8</v>
-      </c>
-      <c r="B15" s="19">
-        <v>8</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="19">
-        <v>2013</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="19">
-        <v>50.94</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19">
-        <v>36.9</v>
-      </c>
-      <c r="L15" s="19">
-        <v>65.2</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="P15" s="19">
-        <v>36</v>
-      </c>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="W15" s="19">
-        <v>1</v>
-      </c>
-      <c r="X15" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19">
-        <v>11</v>
-      </c>
-      <c r="AB15" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC15" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="AD15" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="20"/>
-      <c r="AH15" s="20"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="19"/>
-      <c r="AP15" s="19"/>
-      <c r="AQ15" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="AR15" s="20" t="s">
+      <c r="BE15" s="31" t="s">
         <v>350</v>
-      </c>
-      <c r="AS15" s="19"/>
-      <c r="AT15" s="19"/>
-      <c r="AU15" s="19"/>
-      <c r="AV15" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW15" s="19"/>
-      <c r="AX15" s="19"/>
-      <c r="AY15" s="19"/>
-      <c r="AZ15" s="19"/>
-      <c r="BA15" s="19">
-        <v>1</v>
-      </c>
-      <c r="BB15" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="BC15" s="20">
-        <v>2</v>
-      </c>
-      <c r="BD15" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="BE15" s="19" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:57" s="21" customFormat="1" ht="150" x14ac:dyDescent="0.2">
@@ -5494,13 +5759,13 @@
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="N16" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="N16" s="19" t="s">
-        <v>376</v>
-      </c>
       <c r="O16" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P16" s="19">
         <v>36</v>
@@ -5510,16 +5775,16 @@
       <c r="S16" s="19"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="V16" s="20" t="s">
-        <v>431</v>
+        <v>613</v>
       </c>
       <c r="W16" s="19">
         <v>1</v>
       </c>
       <c r="X16" s="20" t="s">
-        <v>191</v>
+        <v>612</v>
       </c>
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
@@ -5527,13 +5792,13 @@
         <v>12</v>
       </c>
       <c r="AB16" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC16" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD16" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="AC16" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="AD16" s="19" t="s">
-        <v>190</v>
       </c>
       <c r="AE16" s="20"/>
       <c r="AF16" s="20"/>
@@ -5547,7 +5812,7 @@
       <c r="AN16" s="19"/>
       <c r="AO16" s="19"/>
       <c r="AP16" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AQ16" s="19"/>
       <c r="AR16" s="19"/>
@@ -5563,379 +5828,391 @@
         <v>1</v>
       </c>
       <c r="BB16" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BC16" s="20">
         <v>2</v>
       </c>
       <c r="BD16" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BE16" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="17" spans="1:57" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
+    <row r="17" spans="1:57" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A17" s="31">
         <v>50</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="31">
         <v>50</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="31">
         <v>2017</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19" t="s">
+      <c r="F17" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="H17" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="31">
         <v>52.1</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="31">
         <v>9.5</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="31">
         <v>33</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="31">
         <v>71</v>
       </c>
-      <c r="M17" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="N17" s="19" t="s">
+      <c r="M17" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="O17" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="P17" s="31">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="V17" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="W17" s="31">
+        <v>1</v>
+      </c>
+      <c r="X17" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC17" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD17" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG17" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH17" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI17" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="AL17" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="AM17" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="AN17" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="AO17" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="AP17" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="AQ17" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="AR17" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="AS17" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT17" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="AU17" s="31"/>
+      <c r="AV17" s="31"/>
+      <c r="AW17" s="31"/>
+      <c r="AX17" s="31"/>
+      <c r="AY17" s="31"/>
+      <c r="AZ17" s="31"/>
+      <c r="BA17" s="31">
+        <v>1</v>
+      </c>
+      <c r="BB17" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BC17" s="32">
+        <v>3</v>
+      </c>
+      <c r="BD17" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE17" s="31" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:57" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A18" s="31">
+        <v>46</v>
+      </c>
+      <c r="B18" s="31">
+        <v>46</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>602</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="31">
+        <v>2018</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>605</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>605</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="31">
+        <v>51.62</v>
+      </c>
+      <c r="J18" s="31">
+        <v>9.14</v>
+      </c>
+      <c r="K18" s="31">
+        <v>33</v>
+      </c>
+      <c r="L18" s="31">
+        <v>69</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="N18" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="O18" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P18" s="31">
         <v>9</v>
       </c>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="V17" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="W17" s="19">
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="V18" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="W18" s="31">
         <v>1</v>
       </c>
-      <c r="X17" s="20" t="s">
+      <c r="X18" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19">
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31">
         <v>13</v>
       </c>
-      <c r="AB17" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC17" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="AD17" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG17" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH17" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI17" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="AL17" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="AM17" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="AN17" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="AO17" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="AP17" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="AQ17" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="AR17" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="AS17" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT17" s="20" t="s">
+      <c r="AB18" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC18" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="AU17" s="19"/>
-      <c r="AV17" s="19"/>
-      <c r="AW17" s="19"/>
-      <c r="AX17" s="19"/>
-      <c r="AY17" s="19"/>
-      <c r="AZ17" s="19"/>
-      <c r="BA17" s="19">
+      <c r="AD18" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="31"/>
+      <c r="AQ18" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="AR18" s="31"/>
+      <c r="AS18" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="AT18" s="31"/>
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="31"/>
+      <c r="AW18" s="31"/>
+      <c r="AX18" s="31"/>
+      <c r="AY18" s="31"/>
+      <c r="AZ18" s="31"/>
+      <c r="BA18" s="31">
         <v>1</v>
       </c>
-      <c r="BB17" s="20" t="s">
+      <c r="BB18" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="BC17" s="20">
+      <c r="BC18" s="31">
         <v>3</v>
       </c>
-      <c r="BD17" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE17" s="19" t="s">
-        <v>348</v>
-      </c>
+      <c r="BD18" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE18" s="31"/>
     </row>
-    <row r="18" spans="1:57" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
-        <v>46</v>
-      </c>
-      <c r="B18" s="19">
-        <v>46</v>
-      </c>
-      <c r="C18" s="19" t="s">
+    <row r="19" spans="1:57" s="33" customFormat="1" ht="180" x14ac:dyDescent="0.2">
+      <c r="A19" s="31">
+        <v>47</v>
+      </c>
+      <c r="B19" s="31">
+        <v>47</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="31">
+        <v>2016</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>607</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="31">
+        <v>68.7</v>
+      </c>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="N19" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="O19" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="P19" s="31">
         <v>37</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="19">
-        <v>2018</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="19">
-        <v>51.62</v>
-      </c>
-      <c r="J18" s="19">
-        <v>9.14</v>
-      </c>
-      <c r="K18" s="19">
-        <v>33</v>
-      </c>
-      <c r="L18" s="19">
-        <v>69</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="N18" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="O18" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="P18" s="19">
-        <v>9</v>
-      </c>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="V18" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="W18" s="19">
-        <v>1</v>
-      </c>
-      <c r="X18" s="20" t="s">
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="V19" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="W19" s="31">
+        <v>0</v>
+      </c>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31">
+        <v>14</v>
+      </c>
+      <c r="AB19" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19">
-        <v>13</v>
-      </c>
-      <c r="AB18" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC18" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="AD18" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="20"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="19"/>
-      <c r="AP18" s="19"/>
-      <c r="AQ18" s="19" t="s">
-        <v>561</v>
-      </c>
-      <c r="AR18" s="19"/>
-      <c r="AS18" s="19" t="s">
-        <v>562</v>
-      </c>
-      <c r="AT18" s="19"/>
-      <c r="AU18" s="19"/>
-      <c r="AV18" s="19"/>
-      <c r="AW18" s="19"/>
-      <c r="AX18" s="19"/>
-      <c r="AY18" s="19"/>
-      <c r="AZ18" s="19"/>
-      <c r="BA18" s="19">
-        <v>1</v>
-      </c>
-      <c r="BB18" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="BC18" s="19">
-        <v>3</v>
-      </c>
-      <c r="BD18" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE18" s="19"/>
-    </row>
-    <row r="19" spans="1:57" s="21" customFormat="1" ht="180" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
-        <v>47</v>
-      </c>
-      <c r="B19" s="19">
-        <v>47</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="19">
-        <v>2016</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="19">
-        <v>68.7</v>
-      </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="N19" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="P19" s="19">
-        <v>37</v>
-      </c>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="V19" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="W19" s="19">
+      <c r="AC19" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="AD19" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="31"/>
+      <c r="AN19" s="31"/>
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="AQ19" s="31"/>
+      <c r="AR19" s="31"/>
+      <c r="AS19" s="31"/>
+      <c r="AT19" s="31"/>
+      <c r="AU19" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV19" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW19" s="31"/>
+      <c r="AX19" s="31"/>
+      <c r="AY19" s="31"/>
+      <c r="AZ19" s="31"/>
+      <c r="BA19" s="31">
         <v>0</v>
       </c>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19">
-        <v>14</v>
-      </c>
-      <c r="AB19" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC19" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="AD19" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="20"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="19"/>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ19" s="19"/>
-      <c r="AR19" s="19"/>
-      <c r="AS19" s="19"/>
-      <c r="AT19" s="19"/>
-      <c r="AU19" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV19" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="AW19" s="19"/>
-      <c r="AX19" s="19"/>
-      <c r="AY19" s="19"/>
-      <c r="AZ19" s="19"/>
-      <c r="BA19" s="19">
-        <v>0</v>
-      </c>
-      <c r="BB19" s="19"/>
-      <c r="BC19" s="19"/>
-      <c r="BD19" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE19" s="19" t="s">
-        <v>347</v>
+      <c r="BB19" s="31"/>
+      <c r="BC19" s="31"/>
+      <c r="BD19" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE19" s="31" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:57" s="21" customFormat="1" ht="105" x14ac:dyDescent="0.2">
@@ -5946,10 +6223,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="E20" s="19">
         <v>2007</v>
@@ -5970,13 +6247,13 @@
         <v>54</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N20" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="O20" s="20" t="s">
         <v>384</v>
-      </c>
-      <c r="O20" s="20" t="s">
-        <v>385</v>
       </c>
       <c r="P20" s="19">
         <v>1</v>
@@ -5986,10 +6263,10 @@
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
       <c r="U20" s="19" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="V20" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="W20" s="19">
         <v>0</v>
@@ -6001,13 +6278,13 @@
         <v>15</v>
       </c>
       <c r="AB20" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AC20" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AD20" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE20" s="20"/>
       <c r="AF20" s="20"/>
@@ -6021,19 +6298,19 @@
       <c r="AN20" s="19"/>
       <c r="AO20" s="19"/>
       <c r="AP20" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AQ20" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AR20" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="AS20" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT20" s="20" t="s">
         <v>443</v>
-      </c>
-      <c r="AS20" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT20" s="20" t="s">
-        <v>444</v>
       </c>
       <c r="AU20" s="19"/>
       <c r="AV20" s="19"/>
@@ -6047,10 +6324,10 @@
       <c r="BB20" s="19"/>
       <c r="BC20" s="19"/>
       <c r="BD20" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BE20" s="19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:57" s="21" customFormat="1" ht="195" x14ac:dyDescent="0.2">
@@ -6061,10 +6338,10 @@
         <v>14</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="19">
         <v>2017</v>
@@ -6087,13 +6364,13 @@
         <v>54</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N21" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="O21" s="20" t="s">
         <v>384</v>
-      </c>
-      <c r="O21" s="20" t="s">
-        <v>385</v>
       </c>
       <c r="P21" s="19">
         <v>1</v>
@@ -6103,10 +6380,10 @@
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
       <c r="U21" s="19" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="V21" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="W21" s="19">
         <v>0</v>
@@ -6118,29 +6395,29 @@
         <v>16</v>
       </c>
       <c r="AB21" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC21" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AD21" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE21" s="20"/>
       <c r="AF21" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG21" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH21" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="AG21" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH21" s="20" t="s">
+      <c r="AI21" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="AI21" s="20" t="s">
+      <c r="AJ21" s="20" t="s">
         <v>204</v>
-      </c>
-      <c r="AJ21" s="20" t="s">
-        <v>205</v>
       </c>
       <c r="AK21" s="19"/>
       <c r="AL21" s="19"/>
@@ -6148,18 +6425,18 @@
       <c r="AN21" s="19"/>
       <c r="AO21" s="19"/>
       <c r="AP21" s="20" t="s">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="AQ21" s="19"/>
       <c r="AR21" s="19"/>
       <c r="AS21" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AT21" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU21" s="20" t="s">
         <v>206</v>
-      </c>
-      <c r="AU21" s="20" t="s">
-        <v>207</v>
       </c>
       <c r="AV21" s="19"/>
       <c r="AW21" s="19"/>
@@ -6172,133 +6449,133 @@
       <c r="BB21" s="19"/>
       <c r="BC21" s="19"/>
       <c r="BD21" s="20" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="BE21" s="19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:57" s="21" customFormat="1" ht="150" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>13</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>13</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="23">
+      <c r="C22" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="22">
         <v>2013</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>40.700000000000003</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <v>6.2</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="22">
         <v>30</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="22">
         <v>50</v>
       </c>
-      <c r="M22" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="N22" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="O22" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="P22" s="23">
+      <c r="M22" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="P22" s="22">
         <v>21</v>
       </c>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
       <c r="U22" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="V22" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="V22" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="W22" s="22">
+        <v>0</v>
+      </c>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22">
+        <v>17</v>
+      </c>
+      <c r="AB22" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC22" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD22" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG22" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH22" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI22" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="AJ22" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK22" s="22"/>
+      <c r="AL22" s="22"/>
+      <c r="AM22" s="22"/>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="22"/>
+      <c r="AP22" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="AQ22" s="22"/>
+      <c r="AR22" s="22"/>
+      <c r="AS22" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT22" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="W22" s="23">
+      <c r="AU22" s="22"/>
+      <c r="AV22" s="22"/>
+      <c r="AW22" s="22"/>
+      <c r="AX22" s="22"/>
+      <c r="AY22" s="22"/>
+      <c r="AZ22" s="22"/>
+      <c r="BA22" s="22">
         <v>0</v>
       </c>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23">
-        <v>17</v>
-      </c>
-      <c r="AB22" s="24" t="s">
+      <c r="BB22" s="22"/>
+      <c r="BC22" s="22"/>
+      <c r="BD22" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="AC22" s="24" t="s">
-        <v>448</v>
-      </c>
-      <c r="AD22" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="AG22" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH22" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="AI22" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="AJ22" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="AK22" s="23"/>
-      <c r="AL22" s="23"/>
-      <c r="AM22" s="23"/>
-      <c r="AN22" s="23"/>
-      <c r="AO22" s="23"/>
-      <c r="AP22" s="24" t="s">
-        <v>567</v>
-      </c>
-      <c r="AQ22" s="23"/>
-      <c r="AR22" s="23"/>
-      <c r="AS22" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT22" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="AU22" s="23"/>
-      <c r="AV22" s="23"/>
-      <c r="AW22" s="23"/>
-      <c r="AX22" s="23"/>
-      <c r="AY22" s="23"/>
-      <c r="AZ22" s="23"/>
-      <c r="BA22" s="23">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="23"/>
-      <c r="BC22" s="23"/>
-      <c r="BD22" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="BE22" s="23" t="s">
-        <v>347</v>
+      <c r="BE22" s="22" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:57" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
@@ -6309,19 +6586,19 @@
         <v>43</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="E23" s="5">
         <v>2017</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>8</v>
@@ -6337,13 +6614,13 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="O23" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="P23" s="5">
         <v>6</v>
@@ -6353,10 +6630,10 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="W23" s="5">
         <v>0</v>
@@ -6368,29 +6645,29 @@
         <v>18</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE23" s="5"/>
       <c r="AF23" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI23" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="AG23" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH23" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI23" s="13" t="s">
-        <v>213</v>
-      </c>
       <c r="AJ23" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AK23" s="5"/>
       <c r="AL23" s="5"/>
@@ -6414,10 +6691,10 @@
       <c r="BB23" s="5"/>
       <c r="BC23" s="5"/>
       <c r="BD23" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BE23" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:57" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.2">
@@ -6428,19 +6705,19 @@
         <v>22</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="E24" s="5">
         <v>2019</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>13</v>
@@ -6458,13 +6735,13 @@
         <v>11</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N24" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="O24" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="P24" s="5">
         <v>29</v>
@@ -6474,16 +6751,16 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V24" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W24" s="5">
         <v>1</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
@@ -6491,29 +6768,29 @@
         <v>19</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AD24" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AE24" s="5"/>
       <c r="AF24" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI24" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AG24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH24" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI24" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="AJ24" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
@@ -6535,14 +6812,14 @@
         <v>1</v>
       </c>
       <c r="BB24" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BC24" s="5"/>
       <c r="BD24" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BE24" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:57" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.2">
@@ -6553,19 +6830,19 @@
         <v>17</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="E25" s="5">
         <v>2013</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>13</v>
@@ -6579,13 +6856,13 @@
         <v>4</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N25" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="O25" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>391</v>
       </c>
       <c r="P25" s="5">
         <v>31</v>
@@ -6595,16 +6872,16 @@
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V25" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W25" s="5">
         <v>1</v>
       </c>
       <c r="X25" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
@@ -6612,35 +6889,35 @@
         <v>20</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AE25" s="5"/>
       <c r="AF25" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI25" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AG25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH25" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI25" s="6" t="s">
-        <v>222</v>
-      </c>
       <c r="AJ25" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AK25" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL25" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="AL25" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="AM25" s="5"/>
       <c r="AN25" s="5"/>
@@ -6660,14 +6937,14 @@
         <v>1</v>
       </c>
       <c r="BB25" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BC25" s="6"/>
       <c r="BD25" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BE25" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:57" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.2">
@@ -6678,19 +6955,19 @@
         <v>15</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" s="5">
         <v>2015</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>18</v>
@@ -6706,13 +6983,13 @@
         <v>20</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N26" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="O26" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>391</v>
       </c>
       <c r="P26" s="5">
         <v>32</v>
@@ -6722,16 +6999,16 @@
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V26" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W26" s="5">
         <v>1</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
@@ -6739,35 +7016,35 @@
         <v>21</v>
       </c>
       <c r="AB26" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AC26" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AD26" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE26" s="5"/>
       <c r="AF26" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AI26" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AJ26" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="AJ26" s="6" t="s">
-        <v>457</v>
-      </c>
       <c r="AK26" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL26" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="AL26" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="AM26" s="5"/>
       <c r="AN26" s="5"/>
@@ -6787,14 +7064,14 @@
         <v>1</v>
       </c>
       <c r="BB26" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BC26" s="5"/>
       <c r="BD26" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BE26" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:57" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.2">
@@ -6805,7 +7082,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>20</v>
@@ -6814,13 +7091,13 @@
         <v>2015</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I27" s="5">
         <v>14.42</v>
@@ -6829,13 +7106,13 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P27" s="5">
         <v>12</v>
@@ -6845,16 +7122,16 @@
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W27" s="5">
         <v>1</v>
       </c>
       <c r="X27" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
@@ -6862,24 +7139,24 @@
         <v>22</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AD27" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE27" s="5"/>
       <c r="AF27" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH27" s="6"/>
       <c r="AI27" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="5"/>
@@ -6902,14 +7179,14 @@
         <v>1</v>
       </c>
       <c r="BB27" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BC27" s="6"/>
       <c r="BD27" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BE27" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:57" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.2">
@@ -6920,7 +7197,7 @@
         <v>32</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>20</v>
@@ -6929,26 +7206,26 @@
         <v>2015</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P28" s="5">
         <v>12</v>
@@ -6958,16 +7235,16 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W28" s="5">
         <v>1</v>
       </c>
       <c r="X28" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
@@ -6975,24 +7252,24 @@
         <v>23</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE28" s="5"/>
       <c r="AF28" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH28" s="6"/>
       <c r="AI28" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="5"/>
@@ -7015,14 +7292,14 @@
         <v>1</v>
       </c>
       <c r="BB28" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BC28" s="6"/>
       <c r="BD28" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BE28" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:57" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
@@ -7033,19 +7310,19 @@
         <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="E29" s="5">
         <v>2013</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>13</v>
@@ -7063,13 +7340,13 @@
         <v>12</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N29" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="O29" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="P29" s="5">
         <v>35</v>
@@ -7079,10 +7356,10 @@
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W29" s="5">
         <v>0</v>
@@ -7094,35 +7371,35 @@
         <v>24</v>
       </c>
       <c r="AB29" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC29" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AD29" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE29" s="5"/>
       <c r="AF29" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG29" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH29" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI29" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AG29" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH29" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI29" s="6" t="s">
-        <v>238</v>
-      </c>
       <c r="AJ29" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK29" s="6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AL29" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM29" s="5"/>
       <c r="AN29" s="5"/>
@@ -7144,10 +7421,10 @@
       <c r="BB29" s="5"/>
       <c r="BC29" s="5"/>
       <c r="BD29" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BE29" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:57" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.2">
@@ -7158,19 +7435,19 @@
         <v>5</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="E30" s="5">
         <v>2017</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>593</v>
+      <c r="F30" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>590</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>18</v>
@@ -7182,13 +7459,13 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N30" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="O30" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>396</v>
       </c>
       <c r="P30" s="5">
         <v>38</v>
@@ -7198,16 +7475,16 @@
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V30" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="W30" s="5">
         <v>1</v>
       </c>
       <c r="X30" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
@@ -7215,38 +7492,38 @@
         <v>25</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI30" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AJ30" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK30" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL30" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="AG30" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH30" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI30" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="AJ30" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK30" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL30" s="6" t="s">
+      <c r="AM30" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="AM30" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
@@ -7265,135 +7542,139 @@
         <v>1</v>
       </c>
       <c r="BB30" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BC30" s="6"/>
       <c r="BD30" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BE30" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
-    <row r="31" spans="1:57" s="21" customFormat="1" ht="150" x14ac:dyDescent="0.2">
-      <c r="A31" s="19">
+    <row r="31" spans="1:57" s="33" customFormat="1" ht="150" x14ac:dyDescent="0.2">
+      <c r="A31" s="31">
         <v>18</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="31">
         <v>18</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="19">
+      <c r="E31" s="31">
         <v>2015</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19" t="s">
+      <c r="F31" s="31" t="s">
+        <v>616</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>616</v>
+      </c>
+      <c r="H31" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="31">
         <v>0.25</v>
       </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19" t="s">
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="N31" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="N31" s="19" t="s">
+      <c r="O31" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="O31" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="P31" s="19">
+      <c r="P31" s="31">
         <v>11</v>
       </c>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="V31" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="W31" s="19">
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="V31" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="W31" s="31">
         <v>1</v>
       </c>
-      <c r="X31" s="20" t="s">
+      <c r="X31" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31">
+        <v>26</v>
+      </c>
+      <c r="AB31" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC31" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD31" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="AG31" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH31" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI31" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="AJ31" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK31" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19">
-        <v>26</v>
-      </c>
-      <c r="AB31" s="19" t="s">
+      <c r="AL31" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM31" s="31"/>
+      <c r="AN31" s="31"/>
+      <c r="AO31" s="31"/>
+      <c r="AP31" s="31"/>
+      <c r="AQ31" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="AR31" s="31"/>
+      <c r="AS31" s="31"/>
+      <c r="AT31" s="31"/>
+      <c r="AU31" s="31"/>
+      <c r="AV31" s="31"/>
+      <c r="AW31" s="31"/>
+      <c r="AX31" s="31"/>
+      <c r="AY31" s="31"/>
+      <c r="AZ31" s="31"/>
+      <c r="BA31" s="31">
+        <v>1</v>
+      </c>
+      <c r="BB31" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="BC31" s="32"/>
+      <c r="BD31" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="AC31" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD31" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="20" t="s">
-        <v>597</v>
-      </c>
-      <c r="AG31" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH31" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI31" s="20" t="s">
-        <v>598</v>
-      </c>
-      <c r="AJ31" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK31" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="AL31" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="AM31" s="19"/>
-      <c r="AN31" s="19"/>
-      <c r="AO31" s="19"/>
-      <c r="AP31" s="19"/>
-      <c r="AQ31" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="AR31" s="19"/>
-      <c r="AS31" s="19"/>
-      <c r="AT31" s="19"/>
-      <c r="AU31" s="19"/>
-      <c r="AV31" s="19"/>
-      <c r="AW31" s="19"/>
-      <c r="AX31" s="19"/>
-      <c r="AY31" s="19"/>
-      <c r="AZ31" s="19"/>
-      <c r="BA31" s="19">
-        <v>1</v>
-      </c>
-      <c r="BB31" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="BC31" s="20"/>
-      <c r="BD31" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="BE31" s="19" t="s">
-        <v>446</v>
+      <c r="BE31" s="31" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:57" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.2">
@@ -7404,19 +7685,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" s="5">
         <v>2019</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>13</v>
@@ -7430,13 +7711,13 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P32" s="5">
         <v>8</v>
@@ -7446,16 +7727,16 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="V32" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="W32" s="5">
         <v>1</v>
       </c>
       <c r="X32" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
@@ -7463,35 +7744,35 @@
         <v>27</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC32" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AE32" s="5"/>
       <c r="AF32" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG32" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH32" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI32" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="AG32" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH32" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI32" s="6" t="s">
+      <c r="AJ32" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="AJ32" s="6" t="s">
+      <c r="AK32" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="AK32" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="AL32" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AM32" s="5"/>
       <c r="AN32" s="5"/>
@@ -7511,14 +7792,14 @@
         <v>1</v>
       </c>
       <c r="BB32" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BC32" s="6"/>
       <c r="BD32" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BE32" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:57" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
@@ -7529,19 +7810,19 @@
         <v>39</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="E33" s="5">
         <v>2019</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>13</v>
@@ -7563,13 +7844,13 @@
         <v>6.666666666666667</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P33" s="5">
         <v>22</v>
@@ -7579,16 +7860,16 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="V33" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W33" s="5">
         <v>1</v>
       </c>
       <c r="X33" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
@@ -7596,13 +7877,13 @@
         <v>28</v>
       </c>
       <c r="AB33" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC33" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AE33" s="5"/>
       <c r="AF33" s="6"/>
@@ -7611,10 +7892,10 @@
       <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
       <c r="AK33" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AL33" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AM33" s="5"/>
       <c r="AN33" s="5"/>
@@ -7634,240 +7915,248 @@
         <v>1</v>
       </c>
       <c r="BB33" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BC33" s="6"/>
       <c r="BD33" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BE33" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
-    <row r="34" spans="1:57" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="19">
+    <row r="34" spans="1:57" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="31">
         <v>36</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="31">
         <v>36</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="E34" s="31">
+        <v>2012</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>572</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>572</v>
+      </c>
+      <c r="H34" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="19">
-        <v>2012</v>
-      </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19" t="s">
+      <c r="I34" s="31">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="J34" s="31">
+        <v>17</v>
+      </c>
+      <c r="K34" s="31">
+        <v>17</v>
+      </c>
+      <c r="L34" s="31">
+        <v>87</v>
+      </c>
+      <c r="M34" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="N34" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="O34" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="P34" s="31">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="V34" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="W34" s="31">
+        <v>1</v>
+      </c>
+      <c r="X34" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31">
+        <v>29</v>
+      </c>
+      <c r="AB34" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC34" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD34" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="32"/>
+      <c r="AG34" s="32"/>
+      <c r="AH34" s="32"/>
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
+      <c r="AO34" s="31"/>
+      <c r="AP34" s="31"/>
+      <c r="AQ34" s="31"/>
+      <c r="AR34" s="31"/>
+      <c r="AS34" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="AT34" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="AU34" s="31"/>
+      <c r="AV34" s="31"/>
+      <c r="AW34" s="31"/>
+      <c r="AX34" s="31"/>
+      <c r="AY34" s="31"/>
+      <c r="AZ34" s="31"/>
+      <c r="BA34" s="31">
+        <v>1</v>
+      </c>
+      <c r="BB34" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="BC34" s="31"/>
+      <c r="BD34" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="BE34" s="31" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:57" s="33" customFormat="1" ht="135" x14ac:dyDescent="0.2">
+      <c r="A35" s="31">
+        <v>42</v>
+      </c>
+      <c r="B35" s="31">
+        <v>42</v>
+      </c>
+      <c r="C35" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I34" s="19">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="J34" s="19">
-        <v>17</v>
-      </c>
-      <c r="K34" s="19">
-        <v>17</v>
-      </c>
-      <c r="L34" s="19">
-        <v>87</v>
-      </c>
-      <c r="M34" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="N34" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="O34" s="20" t="s">
+      <c r="D35" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="31">
+        <v>2011</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="31">
+        <v>40.35</v>
+      </c>
+      <c r="J35" s="31">
+        <v>15.69</v>
+      </c>
+      <c r="K35" s="31">
+        <v>18</v>
+      </c>
+      <c r="L35" s="31">
+        <v>65</v>
+      </c>
+      <c r="M35" s="31" t="s">
         <v>404</v>
       </c>
-      <c r="P34" s="19">
-        <v>3</v>
-      </c>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="V34" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="W34" s="19">
-        <v>1</v>
-      </c>
-      <c r="X34" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="19">
-        <v>29</v>
-      </c>
-      <c r="AB34" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC34" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="AD34" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="20"/>
-      <c r="AI34" s="19"/>
-      <c r="AJ34" s="19"/>
-      <c r="AK34" s="19"/>
-      <c r="AL34" s="19"/>
-      <c r="AM34" s="19"/>
-      <c r="AN34" s="19"/>
-      <c r="AO34" s="19"/>
-      <c r="AP34" s="19"/>
-      <c r="AQ34" s="19"/>
-      <c r="AR34" s="19"/>
-      <c r="AS34" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="AT34" s="20" t="s">
-        <v>480</v>
-      </c>
-      <c r="AU34" s="19"/>
-      <c r="AV34" s="19"/>
-      <c r="AW34" s="19"/>
-      <c r="AX34" s="19"/>
-      <c r="AY34" s="19"/>
-      <c r="AZ34" s="19"/>
-      <c r="BA34" s="19">
-        <v>1</v>
-      </c>
-      <c r="BB34" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="BC34" s="19"/>
-      <c r="BD34" s="20" t="s">
+      <c r="N35" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="O35" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="P35" s="31">
+        <v>23</v>
+      </c>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="V35" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="W35" s="31">
+        <v>0</v>
+      </c>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31">
+        <v>30</v>
+      </c>
+      <c r="AB35" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="BE34" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="35" spans="1:57" s="21" customFormat="1" ht="135" x14ac:dyDescent="0.2">
-      <c r="A35" s="19">
-        <v>42</v>
-      </c>
-      <c r="B35" s="19">
-        <v>42</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="19">
-        <v>2011</v>
-      </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="19">
-        <v>40.35</v>
-      </c>
-      <c r="J35" s="19">
-        <v>15.69</v>
-      </c>
-      <c r="K35" s="19">
-        <v>18</v>
-      </c>
-      <c r="L35" s="19">
-        <v>65</v>
-      </c>
-      <c r="M35" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="N35" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="O35" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="P35" s="19">
-        <v>23</v>
-      </c>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="V35" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="W35" s="19">
+      <c r="AC35" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD35" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="32"/>
+      <c r="AG35" s="32"/>
+      <c r="AH35" s="32"/>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="31"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
+      <c r="AO35" s="31"/>
+      <c r="AP35" s="31"/>
+      <c r="AQ35" s="31"/>
+      <c r="AR35" s="31"/>
+      <c r="AS35" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="AT35" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="AU35" s="31"/>
+      <c r="AV35" s="31"/>
+      <c r="AW35" s="31"/>
+      <c r="AX35" s="31"/>
+      <c r="AY35" s="31"/>
+      <c r="AZ35" s="31"/>
+      <c r="BA35" s="31">
         <v>0</v>
       </c>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19">
-        <v>30</v>
-      </c>
-      <c r="AB35" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC35" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="AD35" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE35" s="19"/>
-      <c r="AF35" s="20"/>
-      <c r="AG35" s="20"/>
-      <c r="AH35" s="20"/>
-      <c r="AI35" s="19"/>
-      <c r="AJ35" s="19"/>
-      <c r="AK35" s="19"/>
-      <c r="AL35" s="19"/>
-      <c r="AM35" s="19"/>
-      <c r="AN35" s="19"/>
-      <c r="AO35" s="19"/>
-      <c r="AP35" s="19"/>
-      <c r="AQ35" s="19"/>
-      <c r="AR35" s="19"/>
-      <c r="AS35" s="20" t="s">
-        <v>478</v>
-      </c>
-      <c r="AT35" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="AU35" s="19"/>
-      <c r="AV35" s="19"/>
-      <c r="AW35" s="19"/>
-      <c r="AX35" s="19"/>
-      <c r="AY35" s="19"/>
-      <c r="AZ35" s="19"/>
-      <c r="BA35" s="19">
-        <v>0</v>
-      </c>
-      <c r="BB35" s="19"/>
-      <c r="BC35" s="19"/>
-      <c r="BD35" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE35" s="19" t="s">
-        <v>338</v>
+      <c r="BB35" s="31"/>
+      <c r="BC35" s="31"/>
+      <c r="BD35" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE35" s="31" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:57" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.2">
@@ -7878,19 +8167,19 @@
         <v>24</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="E36" s="5">
         <v>2015</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>16</v>
@@ -7904,13 +8193,13 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P36" s="5">
         <v>24</v>
@@ -7920,10 +8209,10 @@
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="V36" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W36" s="5">
         <v>0</v>
@@ -7935,13 +8224,13 @@
         <v>31</v>
       </c>
       <c r="AB36" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC36" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="AC36" s="5" t="s">
-        <v>263</v>
-      </c>
       <c r="AD36" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE36" s="5"/>
       <c r="AF36" s="6"/>
@@ -7950,15 +8239,15 @@
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
       <c r="AK36" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="AL36" s="6" t="s">
         <v>482</v>
-      </c>
-      <c r="AL36" s="6" t="s">
-        <v>483</v>
       </c>
       <c r="AM36" s="5"/>
       <c r="AN36" s="5"/>
       <c r="AO36" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AP36" s="5"/>
       <c r="AQ36" s="6"/>
@@ -7977,10 +8266,10 @@
       <c r="BB36" s="5"/>
       <c r="BC36" s="5"/>
       <c r="BD36" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BE36" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:57" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
@@ -7991,22 +8280,22 @@
         <v>23</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="E37" s="5">
         <v>2017</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I37" s="5">
         <f>33/365</f>
@@ -8025,13 +8314,13 @@
         <v>0.44109589041095892</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N37" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="O37" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>409</v>
       </c>
       <c r="P37" s="5">
         <v>5</v>
@@ -8041,16 +8330,16 @@
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="V37" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W37" s="5">
         <v>1</v>
       </c>
       <c r="X37" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
@@ -8058,35 +8347,35 @@
         <v>32</v>
       </c>
       <c r="AB37" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC37" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AE37" s="5"/>
       <c r="AF37" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG37" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH37" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI37" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="AG37" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH37" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI37" s="6" t="s">
-        <v>485</v>
-      </c>
       <c r="AJ37" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK37" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL37" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="AL37" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="AM37" s="5"/>
       <c r="AN37" s="5"/>
@@ -8106,133 +8395,133 @@
         <v>1</v>
       </c>
       <c r="BB37" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BC37" s="5"/>
       <c r="BD37" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BE37" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="1:57" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A38" s="29">
+      <c r="A38" s="28">
         <v>2</v>
       </c>
-      <c r="B38" s="29">
+      <c r="B38" s="28">
         <v>2</v>
       </c>
-      <c r="C38" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29">
+      <c r="C38" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28">
         <v>2012</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>601</v>
-      </c>
-      <c r="H38" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="H38" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29">
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28">
         <v>4.8</v>
       </c>
-      <c r="L38" s="29">
+      <c r="L38" s="28">
         <v>18.3</v>
       </c>
-      <c r="M38" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="N38" s="30" t="s">
+      <c r="M38" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="N38" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="O38" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="O38" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="P38" s="29">
+      <c r="P38" s="28">
         <v>32</v>
       </c>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
       <c r="U38" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="V38" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="W38" s="29">
+        <v>526</v>
+      </c>
+      <c r="V38" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="W38" s="28">
         <v>0</v>
       </c>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="31">
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="30">
         <v>33</v>
       </c>
-      <c r="AB38" s="29" t="s">
+      <c r="AB38" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC38" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD38" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="AG38" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH38" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI38" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="AC38" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD38" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE38" s="29"/>
-      <c r="AF38" s="30" t="s">
-        <v>486</v>
-      </c>
-      <c r="AG38" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH38" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI38" s="30" t="s">
+      <c r="AJ38" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="AJ38" s="30" t="s">
+      <c r="AK38" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="AK38" s="30" t="s">
+      <c r="AL38" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="AL38" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="AM38" s="29"/>
-      <c r="AN38" s="29"/>
-      <c r="AO38" s="29"/>
-      <c r="AP38" s="29"/>
-      <c r="AQ38" s="29"/>
-      <c r="AR38" s="29"/>
-      <c r="AS38" s="29"/>
-      <c r="AT38" s="29"/>
-      <c r="AU38" s="29"/>
-      <c r="AV38" s="29"/>
-      <c r="AW38" s="29"/>
-      <c r="AX38" s="29"/>
-      <c r="AY38" s="29"/>
-      <c r="AZ38" s="29"/>
-      <c r="BA38" s="29">
+      <c r="AM38" s="28"/>
+      <c r="AN38" s="28"/>
+      <c r="AO38" s="28"/>
+      <c r="AP38" s="28"/>
+      <c r="AQ38" s="28"/>
+      <c r="AR38" s="28"/>
+      <c r="AS38" s="28"/>
+      <c r="AT38" s="28"/>
+      <c r="AU38" s="28"/>
+      <c r="AV38" s="28"/>
+      <c r="AW38" s="28"/>
+      <c r="AX38" s="28"/>
+      <c r="AY38" s="28"/>
+      <c r="AZ38" s="28"/>
+      <c r="BA38" s="28">
         <v>0</v>
       </c>
-      <c r="BB38" s="29"/>
-      <c r="BC38" s="29"/>
-      <c r="BD38" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE38" s="29" t="s">
-        <v>446</v>
+      <c r="BB38" s="28"/>
+      <c r="BC38" s="28"/>
+      <c r="BD38" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE38" s="28" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:57" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -8243,19 +8532,19 @@
         <v>26</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" s="5">
         <v>2010</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>13</v>
@@ -8273,22 +8562,22 @@
         <v>18.25</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N39" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="O39" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>391</v>
       </c>
       <c r="P39" s="5">
         <v>32</v>
       </c>
       <c r="U39" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W39" s="5">
         <v>0</v>
@@ -8297,43 +8586,43 @@
         <v>33</v>
       </c>
       <c r="AB39" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC39" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD39" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF39" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="AC39" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD39" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF39" s="6" t="s">
+      <c r="AG39" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH39" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI39" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="AG39" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH39" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI39" s="6" t="s">
-        <v>277</v>
-      </c>
       <c r="AJ39" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AK39" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AL39" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BA39" s="5">
         <v>0</v>
       </c>
       <c r="BD39" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BE39" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:57" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.2">
@@ -8347,16 +8636,16 @@
         <v>23</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E40" s="15">
         <v>2013</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>13</v>
@@ -8374,13 +8663,13 @@
         <v>18.25</v>
       </c>
       <c r="M40" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N40" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="O40" s="16" t="s">
         <v>390</v>
-      </c>
-      <c r="O40" s="16" t="s">
-        <v>391</v>
       </c>
       <c r="P40" s="15">
         <v>32</v>
@@ -8390,10 +8679,10 @@
       <c r="S40" s="15"/>
       <c r="T40" s="15"/>
       <c r="U40" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="V40" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W40" s="15">
         <v>0</v>
@@ -8405,35 +8694,35 @@
         <v>34</v>
       </c>
       <c r="AB40" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC40" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD40" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE40" s="15"/>
       <c r="AF40" s="16" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH40" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI40" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="AJ40" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="AI40" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="AJ40" s="16" t="s">
+      <c r="AK40" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="AK40" s="16" t="s">
-        <v>280</v>
-      </c>
       <c r="AL40" s="16" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AM40" s="15"/>
       <c r="AN40" s="15"/>
@@ -8455,10 +8744,10 @@
       <c r="BB40" s="15"/>
       <c r="BC40" s="15"/>
       <c r="BD40" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BE40" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="41" spans="1:57" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.2">
@@ -8469,19 +8758,19 @@
         <v>16</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="E41" s="5">
         <v>2011</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>18</v>
@@ -8499,13 +8788,13 @@
         <v>17</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N41" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="O41" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>391</v>
       </c>
       <c r="P41" s="5">
         <v>32</v>
@@ -8515,10 +8804,10 @@
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="V41" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W41" s="5">
         <v>0</v>
@@ -8530,35 +8819,35 @@
         <v>35</v>
       </c>
       <c r="AB41" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AC41" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD41" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE41" s="5"/>
       <c r="AF41" s="6" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AG41" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH41" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AI41" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AJ41" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AK41" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AL41" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AM41" s="5"/>
       <c r="AN41" s="5"/>
@@ -8580,10 +8869,10 @@
       <c r="BB41" s="5"/>
       <c r="BC41" s="5"/>
       <c r="BD41" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BE41" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:57" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.2">
@@ -8594,19 +8883,19 @@
         <v>49</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" s="5">
         <v>2016</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>18</v>
@@ -8624,13 +8913,13 @@
         <v>21</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N42" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="O42" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="O42" s="6" t="s">
-        <v>411</v>
       </c>
       <c r="P42" s="5">
         <v>34</v>
@@ -8640,10 +8929,10 @@
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="V42" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W42" s="5">
         <v>0</v>
@@ -8655,35 +8944,35 @@
         <v>36</v>
       </c>
       <c r="AB42" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC42" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD42" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE42" s="5"/>
       <c r="AF42" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AG42" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH42" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI42" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AJ42" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK42" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="AI42" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="AJ42" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK42" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="AL42" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AM42" s="5"/>
       <c r="AN42" s="5"/>
@@ -8699,7 +8988,7 @@
       <c r="AX42" s="5"/>
       <c r="AY42" s="5"/>
       <c r="AZ42" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BA42" s="5">
         <v>0</v>
@@ -8707,10 +8996,10 @@
       <c r="BB42" s="5"/>
       <c r="BC42" s="5"/>
       <c r="BD42" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BE42" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:57" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.2">
@@ -8721,19 +9010,19 @@
         <v>4</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E43" s="5">
         <v>2017</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>18</v>
@@ -8751,13 +9040,13 @@
         <v>20.9</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P43" s="5">
         <v>34</v>
@@ -8767,10 +9056,10 @@
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="V43" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W43" s="5">
         <v>0</v>
@@ -8782,35 +9071,35 @@
         <v>36</v>
       </c>
       <c r="AB43" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AC43" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD43" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE43" s="5"/>
       <c r="AF43" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG43" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH43" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI43" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="AJ43" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK43" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="AG43" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH43" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="AI43" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="AJ43" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK43" s="6" t="s">
+      <c r="AL43" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="AL43" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="AM43" s="5"/>
       <c r="AN43" s="5"/>
@@ -8832,10 +9121,10 @@
       <c r="BB43" s="5"/>
       <c r="BC43" s="5"/>
       <c r="BD43" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BE43" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:57" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.2">
@@ -8846,19 +9135,19 @@
         <v>3</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E44" s="5">
         <v>2018</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>18</v>
@@ -8876,13 +9165,13 @@
         <v>20.9</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N44" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="O44" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="O44" s="6" t="s">
-        <v>411</v>
       </c>
       <c r="P44" s="5">
         <v>34</v>
@@ -8892,10 +9181,10 @@
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="V44" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W44" s="5">
         <v>0</v>
@@ -8907,35 +9196,35 @@
         <v>36</v>
       </c>
       <c r="AB44" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC44" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD44" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE44" s="5"/>
       <c r="AF44" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG44" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH44" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI44" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ44" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK44" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="AG44" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH44" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="AI44" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="AJ44" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK44" s="6" t="s">
+      <c r="AL44" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="AL44" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="AM44" s="5"/>
       <c r="AN44" s="5"/>
@@ -8957,10 +9246,10 @@
       <c r="BB44" s="5"/>
       <c r="BC44" s="5"/>
       <c r="BD44" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BE44" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:57" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
@@ -8971,19 +9260,19 @@
         <v>37</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E45" s="5">
         <v>2015</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>18</v>
@@ -9001,13 +9290,13 @@
         <v>20</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N45" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="O45" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>411</v>
       </c>
       <c r="P45" s="5">
         <v>34</v>
@@ -9017,10 +9306,10 @@
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="V45" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W45" s="5">
         <v>0</v>
@@ -9032,35 +9321,35 @@
         <v>36</v>
       </c>
       <c r="AB45" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AC45" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD45" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE45" s="5"/>
       <c r="AF45" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG45" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH45" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AI45" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AJ45" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AK45" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="AL45" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="AL45" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="AM45" s="5"/>
       <c r="AN45" s="5"/>
@@ -9076,7 +9365,7 @@
       <c r="AX45" s="5"/>
       <c r="AY45" s="5"/>
       <c r="AZ45" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BA45" s="5">
         <v>0</v>
@@ -9084,10 +9373,10 @@
       <c r="BB45" s="5"/>
       <c r="BC45" s="5"/>
       <c r="BD45" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BE45" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:57" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
@@ -9098,19 +9387,19 @@
         <v>41</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E46" s="5">
         <v>2019</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>18</v>
@@ -9128,13 +9417,13 @@
         <v>17.559999999999999</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P46" s="5">
         <v>34</v>
@@ -9144,10 +9433,10 @@
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="V46" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W46" s="5">
         <v>0</v>
@@ -9159,35 +9448,35 @@
         <v>36</v>
       </c>
       <c r="AB46" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC46" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD46" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE46" s="5"/>
       <c r="AF46" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG46" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH46" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AI46" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AJ46" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AK46" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="AL46" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="AL46" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="AM46" s="5"/>
       <c r="AN46" s="5"/>
@@ -9209,10 +9498,10 @@
       <c r="BB46" s="5"/>
       <c r="BC46" s="5"/>
       <c r="BD46" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BE46" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:57" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
@@ -9223,19 +9512,19 @@
         <v>34</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E47" s="5">
         <v>2018</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>18</v>
@@ -9253,13 +9542,13 @@
         <v>21</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N47" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="O47" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>411</v>
       </c>
       <c r="P47" s="5">
         <v>34</v>
@@ -9269,10 +9558,10 @@
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
       <c r="U47" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="V47" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W47" s="5">
         <v>0</v>
@@ -9284,35 +9573,35 @@
         <v>36</v>
       </c>
       <c r="AB47" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AC47" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD47" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE47" s="5"/>
       <c r="AF47" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH47" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AI47" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AJ47" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AK47" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="AL47" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="AL47" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="AM47" s="5"/>
       <c r="AN47" s="5"/>
@@ -9328,7 +9617,7 @@
       <c r="AX47" s="5"/>
       <c r="AY47" s="5"/>
       <c r="AZ47" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BA47" s="5">
         <v>0</v>
@@ -9336,10 +9625,10 @@
       <c r="BB47" s="5"/>
       <c r="BC47" s="5"/>
       <c r="BD47" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BE47" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:57" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
@@ -9350,19 +9639,19 @@
         <v>40</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E48" s="5">
         <v>2016</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>18</v>
@@ -9380,13 +9669,13 @@
         <v>20</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N48" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="O48" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>411</v>
       </c>
       <c r="P48" s="5">
         <v>34</v>
@@ -9396,10 +9685,10 @@
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="U48" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="V48" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W48" s="5">
         <v>0</v>
@@ -9411,35 +9700,35 @@
         <v>36</v>
       </c>
       <c r="AB48" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC48" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD48" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE48" s="5"/>
       <c r="AF48" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG48" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH48" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AI48" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AJ48" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AK48" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="AL48" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="AL48" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="AM48" s="5"/>
       <c r="AN48" s="5"/>
@@ -9461,10 +9750,10 @@
       <c r="BB48" s="5"/>
       <c r="BC48" s="5"/>
       <c r="BD48" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BE48" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49" spans="1:57" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
@@ -9475,22 +9764,22 @@
         <v>6</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="E49" s="5">
         <v>2018</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I49" s="5">
         <v>15.8</v>
@@ -9505,13 +9794,13 @@
         <v>18</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P49" s="5">
         <v>25</v>
@@ -9521,16 +9810,16 @@
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="V49" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W49" s="5">
         <v>1</v>
       </c>
       <c r="X49" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
@@ -9538,33 +9827,33 @@
         <v>37</v>
       </c>
       <c r="AB49" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC49" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD49" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE49" s="5"/>
       <c r="AF49" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG49" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AH49" s="6"/>
       <c r="AI49" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AJ49" s="5">
         <v>0</v>
       </c>
       <c r="AK49" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AL49" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AM49" s="5"/>
       <c r="AN49" s="5"/>
@@ -9584,14 +9873,14 @@
         <v>1</v>
       </c>
       <c r="BB49" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BC49" s="5"/>
       <c r="BD49" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BE49" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:57" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
@@ -9602,22 +9891,22 @@
         <v>38</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E50" s="5">
         <v>2012</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I50" s="5">
         <v>11.4</v>
@@ -9632,13 +9921,13 @@
         <v>17</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P50" s="5">
         <v>26</v>
@@ -9648,10 +9937,10 @@
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
       <c r="U50" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="V50" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W50" s="5">
         <v>0</v>
@@ -9663,35 +9952,35 @@
         <v>38</v>
       </c>
       <c r="AB50" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC50" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD50" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE50" s="5"/>
       <c r="AF50" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG50" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH50" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI50" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="AG50" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH50" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI50" s="6" t="s">
-        <v>302</v>
-      </c>
       <c r="AJ50" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK50" s="25" t="s">
-        <v>497</v>
-      </c>
-      <c r="AL50" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK50" s="24" t="s">
         <v>496</v>
+      </c>
+      <c r="AL50" s="24" t="s">
+        <v>495</v>
       </c>
       <c r="AM50" s="5"/>
       <c r="AN50" s="5"/>
@@ -9713,10 +10002,10 @@
       <c r="BB50" s="5"/>
       <c r="BC50" s="5"/>
       <c r="BD50" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="BE50" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" spans="1:57" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.2">
@@ -9727,22 +10016,22 @@
         <v>11</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="E51" s="5">
         <v>2018</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I51" s="5">
         <v>14.82</v>
@@ -9757,13 +10046,13 @@
         <v>22.82</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N51" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="O51" s="6" t="s">
         <v>414</v>
-      </c>
-      <c r="O51" s="6" t="s">
-        <v>415</v>
       </c>
       <c r="P51" s="5">
         <v>10</v>
@@ -9773,10 +10062,10 @@
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
       <c r="U51" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="V51" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W51" s="5">
         <v>0</v>
@@ -9788,35 +10077,35 @@
         <v>39</v>
       </c>
       <c r="AB51" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AC51" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD51" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AE51" s="5"/>
       <c r="AF51" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AG51" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH51" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AI51" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AJ51" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AK51" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AL51" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AM51" s="5"/>
       <c r="AN51" s="5"/>
@@ -9838,10 +10127,10 @@
       <c r="BB51" s="5"/>
       <c r="BC51" s="5"/>
       <c r="BD51" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="BE51" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52" spans="1:57" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.2">
@@ -9852,19 +10141,19 @@
         <v>48</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="E52" s="5">
         <v>2019</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>16</v>
@@ -9878,13 +10167,13 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="N52" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="N52" s="5" t="s">
-        <v>417</v>
-      </c>
       <c r="O52" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P52" s="5">
         <v>27</v>
@@ -9894,10 +10183,10 @@
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="V52" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W52" s="5">
         <v>0</v>
@@ -9909,35 +10198,35 @@
         <v>40</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC52" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AE52" s="5"/>
       <c r="AF52" s="6" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AG52" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH52" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI52" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="AI52" s="6" t="s">
-        <v>307</v>
-      </c>
       <c r="AJ52" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AK52" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AL52" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="AL52" s="6" t="s">
-        <v>501</v>
       </c>
       <c r="AM52" s="5"/>
       <c r="AN52" s="5"/>
@@ -9959,10 +10248,10 @@
       <c r="BB52" s="5"/>
       <c r="BC52" s="5"/>
       <c r="BD52" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BE52" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:57" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
@@ -9973,19 +10262,19 @@
         <v>9</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="E53" s="5">
         <v>2017</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>18</v>
@@ -10003,13 +10292,13 @@
         <v>10</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P53" s="5">
         <v>28</v>
@@ -10019,16 +10308,16 @@
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
       <c r="U53" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="V53" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W53" s="5">
         <v>1</v>
       </c>
       <c r="X53" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
@@ -10036,35 +10325,35 @@
         <v>41</v>
       </c>
       <c r="AB53" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD53" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE53" s="5"/>
       <c r="AF53" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG53" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH53" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI53" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="AG53" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH53" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI53" s="6" t="s">
+      <c r="AJ53" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK53" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="AJ53" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK53" s="6" t="s">
+      <c r="AL53" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="AL53" s="6" t="s">
-        <v>313</v>
       </c>
       <c r="AM53" s="5"/>
       <c r="AN53" s="5"/>
@@ -10076,7 +10365,7 @@
       <c r="AT53" s="5"/>
       <c r="AU53" s="5"/>
       <c r="AV53" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AW53" s="5"/>
       <c r="AX53" s="5"/>
@@ -10086,14 +10375,14 @@
         <v>1</v>
       </c>
       <c r="BB53" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BC53" s="5"/>
       <c r="BD53" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BE53" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="1:57" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.2">
@@ -10104,22 +10393,22 @@
         <v>51</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="E54" s="5">
         <v>2017</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I54" s="5">
         <v>12.79</v>
@@ -10130,13 +10419,13 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N54" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="O54" s="6" t="s">
         <v>419</v>
-      </c>
-      <c r="O54" s="6" t="s">
-        <v>420</v>
       </c>
       <c r="P54" s="5">
         <v>2</v>
@@ -10146,10 +10435,10 @@
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
       <c r="U54" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="V54" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="W54" s="5">
         <v>0</v>
@@ -10161,45 +10450,45 @@
         <v>42</v>
       </c>
       <c r="AB54" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC54" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="AC54" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="AD54" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AE54" s="5"/>
       <c r="AF54" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG54" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH54" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI54" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="AG54" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH54" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AI54" s="6" t="s">
+      <c r="AJ54" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK54" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="AL54" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="AJ54" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK54" s="6" t="s">
+      <c r="AM54" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="AL54" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="AM54" s="6" t="s">
+      <c r="AN54" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="AN54" s="6" t="s">
-        <v>506</v>
       </c>
       <c r="AO54" s="5"/>
       <c r="AP54" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AQ54" s="5"/>
       <c r="AR54" s="5"/>
@@ -10217,10 +10506,10 @@
       <c r="BB54" s="5"/>
       <c r="BC54" s="5"/>
       <c r="BD54" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BE54" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:57" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.2">
@@ -10231,10 +10520,10 @@
         <v>7</v>
       </c>
       <c r="C55" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="E55" s="19">
         <v>2012</v>
@@ -10257,13 +10546,13 @@
         <v>48</v>
       </c>
       <c r="M55" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N55" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="O55" s="20" t="s">
         <v>421</v>
-      </c>
-      <c r="O55" s="20" t="s">
-        <v>422</v>
       </c>
       <c r="P55" s="19">
         <v>33</v>
@@ -10273,16 +10562,16 @@
       <c r="S55" s="19"/>
       <c r="T55" s="19"/>
       <c r="U55" s="19" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="V55" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W55" s="19">
         <v>1</v>
       </c>
       <c r="X55" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Y55" s="19"/>
       <c r="Z55" s="19"/>
@@ -10290,13 +10579,13 @@
         <v>43</v>
       </c>
       <c r="AB55" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC55" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="AC55" s="19" t="s">
-        <v>322</v>
-      </c>
       <c r="AD55" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE55" s="19"/>
       <c r="AF55" s="20"/>
@@ -10311,22 +10600,22 @@
       <c r="AO55" s="19"/>
       <c r="AP55" s="19"/>
       <c r="AQ55" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="AR55" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="AS55" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="AR55" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="AS55" s="20" t="s">
-        <v>509</v>
-      </c>
       <c r="AT55" s="20" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="AU55" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="AV55" s="19" t="s">
         <v>324</v>
-      </c>
-      <c r="AV55" s="19" t="s">
-        <v>325</v>
       </c>
       <c r="AW55" s="19"/>
       <c r="AX55" s="19"/>
@@ -10336,248 +10625,256 @@
         <v>1</v>
       </c>
       <c r="BB55" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="BC55" s="19"/>
       <c r="BD55" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BE55" s="19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
-    <row r="56" spans="1:57" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A56" s="19">
+    <row r="56" spans="1:57" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A56" s="31">
         <v>55</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="31">
         <v>55</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="31">
+        <v>2018</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>572</v>
+      </c>
+      <c r="H56" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="19">
-        <v>2018</v>
-      </c>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19" t="s">
+      <c r="I56" s="31">
+        <v>28.78</v>
+      </c>
+      <c r="J56" s="31">
+        <v>3.7</v>
+      </c>
+      <c r="K56" s="31">
+        <v>22</v>
+      </c>
+      <c r="L56" s="31">
+        <v>37</v>
+      </c>
+      <c r="M56" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="N56" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="O56" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="P56" s="31">
+        <v>7</v>
+      </c>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="31"/>
+      <c r="U56" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="V56" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="W56" s="31">
+        <v>0</v>
+      </c>
+      <c r="X56" s="31"/>
+      <c r="Y56" s="31"/>
+      <c r="Z56" s="31"/>
+      <c r="AA56" s="31">
+        <v>44</v>
+      </c>
+      <c r="AB56" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC56" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD56" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE56" s="31"/>
+      <c r="AF56" s="32"/>
+      <c r="AG56" s="32"/>
+      <c r="AH56" s="32"/>
+      <c r="AI56" s="31"/>
+      <c r="AJ56" s="31"/>
+      <c r="AK56" s="31"/>
+      <c r="AL56" s="31"/>
+      <c r="AM56" s="31"/>
+      <c r="AN56" s="31"/>
+      <c r="AO56" s="31"/>
+      <c r="AP56" s="31"/>
+      <c r="AQ56" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="AR56" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS56" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="AT56" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="AU56" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="AV56" s="31"/>
+      <c r="AW56" s="31"/>
+      <c r="AX56" s="31"/>
+      <c r="AY56" s="31"/>
+      <c r="AZ56" s="31"/>
+      <c r="BA56" s="31">
+        <v>0</v>
+      </c>
+      <c r="BB56" s="31"/>
+      <c r="BC56" s="31"/>
+      <c r="BD56" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE56" s="31" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="57" spans="1:57" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A57" s="31">
+        <v>10</v>
+      </c>
+      <c r="B57" s="31">
+        <v>10</v>
+      </c>
+      <c r="C57" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="I56" s="19">
-        <v>28.78</v>
-      </c>
-      <c r="J56" s="19">
-        <v>3.7</v>
-      </c>
-      <c r="K56" s="19">
-        <v>22</v>
-      </c>
-      <c r="L56" s="19">
-        <v>37</v>
-      </c>
-      <c r="M56" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="N56" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="O56" s="20" t="s">
+      <c r="D57" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="31">
+        <v>2017</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="H57" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I57" s="31">
+        <v>71.95</v>
+      </c>
+      <c r="J57" s="31">
+        <v>3.9</v>
+      </c>
+      <c r="K57" s="31">
+        <v>65</v>
+      </c>
+      <c r="L57" s="31">
+        <v>80</v>
+      </c>
+      <c r="M57" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="P56" s="19">
-        <v>7</v>
-      </c>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="19"/>
-      <c r="U56" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="V56" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="W56" s="19">
+      <c r="N57" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="O57" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="P57" s="31">
+        <v>39</v>
+      </c>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="31"/>
+      <c r="U57" s="31" t="s">
+        <v>533</v>
+      </c>
+      <c r="V57" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="W57" s="31">
         <v>0</v>
       </c>
-      <c r="X56" s="19"/>
-      <c r="Y56" s="19"/>
-      <c r="Z56" s="19"/>
-      <c r="AA56" s="19">
-        <v>44</v>
-      </c>
-      <c r="AB56" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC56" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="AD56" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE56" s="19"/>
-      <c r="AF56" s="20"/>
-      <c r="AG56" s="20"/>
-      <c r="AH56" s="20"/>
-      <c r="AI56" s="19"/>
-      <c r="AJ56" s="19"/>
-      <c r="AK56" s="19"/>
-      <c r="AL56" s="19"/>
-      <c r="AM56" s="19"/>
-      <c r="AN56" s="19"/>
-      <c r="AO56" s="19"/>
-      <c r="AP56" s="19"/>
-      <c r="AQ56" s="20" t="s">
-        <v>588</v>
-      </c>
-      <c r="AR56" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="AS56" s="19" t="s">
+      <c r="X57" s="31"/>
+      <c r="Y57" s="31"/>
+      <c r="Z57" s="31"/>
+      <c r="AA57" s="31">
+        <v>45</v>
+      </c>
+      <c r="AB57" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC57" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD57" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE57" s="31"/>
+      <c r="AF57" s="32"/>
+      <c r="AG57" s="32"/>
+      <c r="AH57" s="32"/>
+      <c r="AI57" s="31"/>
+      <c r="AJ57" s="31"/>
+      <c r="AK57" s="31"/>
+      <c r="AL57" s="31"/>
+      <c r="AM57" s="31"/>
+      <c r="AN57" s="31"/>
+      <c r="AO57" s="31"/>
+      <c r="AP57" s="31"/>
+      <c r="AQ57" s="31"/>
+      <c r="AR57" s="31"/>
+      <c r="AS57" s="31"/>
+      <c r="AT57" s="31"/>
+      <c r="AU57" s="31"/>
+      <c r="AV57" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="AW57" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="AX57" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="AY57" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="AZ57" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="BA57" s="31">
+        <v>0</v>
+      </c>
+      <c r="BB57" s="31"/>
+      <c r="BC57" s="31"/>
+      <c r="BD57" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="BE57" s="31" t="s">
         <v>512</v>
-      </c>
-      <c r="AT56" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="AU56" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="AV56" s="19"/>
-      <c r="AW56" s="19"/>
-      <c r="AX56" s="19"/>
-      <c r="AY56" s="19"/>
-      <c r="AZ56" s="19"/>
-      <c r="BA56" s="19">
-        <v>0</v>
-      </c>
-      <c r="BB56" s="19"/>
-      <c r="BC56" s="19"/>
-      <c r="BD56" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE56" s="19" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="57" spans="1:57" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A57" s="19">
-        <v>10</v>
-      </c>
-      <c r="B57" s="19">
-        <v>10</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E57" s="19">
-        <v>2017</v>
-      </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I57" s="19">
-        <v>71.95</v>
-      </c>
-      <c r="J57" s="19">
-        <v>3.9</v>
-      </c>
-      <c r="K57" s="19">
-        <v>65</v>
-      </c>
-      <c r="L57" s="19">
-        <v>80</v>
-      </c>
-      <c r="M57" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="N57" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="O57" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="P57" s="19">
-        <v>39</v>
-      </c>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="V57" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="W57" s="19">
-        <v>0</v>
-      </c>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="19"/>
-      <c r="AA57" s="19">
-        <v>45</v>
-      </c>
-      <c r="AB57" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC57" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD57" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE57" s="19"/>
-      <c r="AF57" s="20"/>
-      <c r="AG57" s="20"/>
-      <c r="AH57" s="20"/>
-      <c r="AI57" s="19"/>
-      <c r="AJ57" s="19"/>
-      <c r="AK57" s="19"/>
-      <c r="AL57" s="19"/>
-      <c r="AM57" s="19"/>
-      <c r="AN57" s="19"/>
-      <c r="AO57" s="19"/>
-      <c r="AP57" s="19"/>
-      <c r="AQ57" s="19"/>
-      <c r="AR57" s="19"/>
-      <c r="AS57" s="19"/>
-      <c r="AT57" s="19"/>
-      <c r="AU57" s="19"/>
-      <c r="AV57" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="AW57" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="AX57" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="AY57" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="AZ57" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="BA57" s="19">
-        <v>0</v>
-      </c>
-      <c r="BB57" s="19"/>
-      <c r="BC57" s="19"/>
-      <c r="BD57" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="BE57" s="19" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="59" spans="1:57" x14ac:dyDescent="0.2">
